--- a/config_multi.xls/chat_game_cfg.xlsx
+++ b/config_multi.xls/chat_game_cfg.xlsx
@@ -1,28 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/trunk/gamedate/config_multi.xls/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="3380" windowWidth="24340" windowHeight="12480" tabRatio="590"/>
+    <workbookView windowWidth="28800" windowHeight="12330" tabRatio="590"/>
   </bookViews>
   <sheets>
     <sheet name="chat_game_cfg" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -75,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -103,19 +90,192 @@
   <si>
     <t>55;56;57;58;59;60;61;62;63;64</t>
   </si>
+  <si>
+    <t>65;66;67;68;69;70;71;72;73</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="0"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -124,30 +284,202 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="0"/>
-      <name val="Microsoft YaHei UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -155,24 +487,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -434,24 +1056,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +1084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -473,7 +1095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -484,7 +1106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -495,7 +1117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -506,7 +1128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -517,7 +1139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -528,7 +1150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -539,7 +1161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -550,7 +1172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -561,7 +1183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -572,7 +1194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -583,7 +1205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -594,7 +1216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -605,7 +1227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -616,7 +1238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -627,7 +1249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -638,7 +1260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -649,7 +1271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -660,7 +1282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -671,7 +1293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -682,7 +1304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -693,7 +1315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -704,7 +1326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -715,7 +1337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -726,7 +1348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -737,7 +1359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -748,7 +1370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -759,7 +1381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -770,7 +1392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -781,7 +1403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -792,7 +1414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -803,7 +1425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -814,7 +1436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -825,7 +1447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -836,7 +1458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -847,7 +1469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -858,7 +1480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -869,7 +1491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -880,7 +1502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -891,7 +1513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -902,7 +1524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -913,7 +1535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -924,7 +1546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -935,7 +1557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -946,7 +1568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -957,7 +1579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -968,7 +1590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -979,7 +1601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -990,7 +1612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1001,10 +1623,32 @@
         <v>6</v>
       </c>
     </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2">
+        <v>202</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2">
+        <v>203</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>